--- a/scripts/sample.xlsx
+++ b/scripts/sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nhoc\Desktop\doremi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nhoc\Documents\GitHub\doremi-automation\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9362B563-5797-4B3C-B684-E4B8668E3045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CB4E8C-9E60-4D63-9C01-2328BE3AF85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{95E83481-AC2B-4DEB-B282-C7326921EFD9}"/>
   </bookViews>

--- a/scripts/sample.xlsx
+++ b/scripts/sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nhoc\Documents\GitHub\doremi-automation\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nhoc\Desktop\doremi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CB4E8C-9E60-4D63-9C01-2328BE3AF85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FA8BA6-1166-4507-A581-0A494DE516CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{95E83481-AC2B-4DEB-B282-C7326921EFD9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>Alvin</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>Thai</t>
+  </si>
+  <si>
+    <t>maitiendat7701@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1217,7 +1220,7 @@
   <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="AH14" sqref="AH14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,6 +1231,8 @@
     <col min="29" max="29" width="18" customWidth="1"/>
     <col min="30" max="30" width="20.5703125" customWidth="1"/>
     <col min="32" max="32" width="17" customWidth="1"/>
+    <col min="34" max="34" width="47.7109375" customWidth="1"/>
+    <col min="35" max="35" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1408,8 +1413,12 @@
       <c r="AE2" s="22"/>
       <c r="AF2" s="23"/>
       <c r="AG2" s="24"/>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="26"/>
+      <c r="AH2" s="25">
+        <v>6784885297</v>
+      </c>
+      <c r="AI2" s="26" t="s">
+        <v>50</v>
+      </c>
       <c r="AJ2" s="24"/>
       <c r="AK2" s="24"/>
       <c r="AL2" s="27"/>
@@ -1467,8 +1476,12 @@
       <c r="AE3" s="66"/>
       <c r="AF3" s="23"/>
       <c r="AG3" s="24"/>
-      <c r="AH3" s="25"/>
-      <c r="AI3" s="26"/>
+      <c r="AH3" s="25">
+        <v>6784885297</v>
+      </c>
+      <c r="AI3" s="26" t="s">
+        <v>50</v>
+      </c>
       <c r="AJ3" s="67"/>
       <c r="AK3" s="67"/>
       <c r="AL3" s="68"/>
@@ -1525,8 +1538,12 @@
       <c r="AD4" s="66"/>
       <c r="AE4" s="66"/>
       <c r="AF4" s="23"/>
-      <c r="AH4" s="74"/>
-      <c r="AI4" s="75"/>
+      <c r="AH4" s="74">
+        <v>6784885297</v>
+      </c>
+      <c r="AI4" s="75" t="s">
+        <v>50</v>
+      </c>
       <c r="AJ4" s="76"/>
       <c r="AK4" s="76"/>
       <c r="AL4" s="77"/>
@@ -1581,8 +1598,12 @@
       <c r="AE5" s="87"/>
       <c r="AF5" s="23"/>
       <c r="AG5" s="24"/>
-      <c r="AH5" s="25"/>
-      <c r="AI5" s="88"/>
+      <c r="AH5" s="25">
+        <v>6784885297</v>
+      </c>
+      <c r="AI5" s="88" t="s">
+        <v>50</v>
+      </c>
       <c r="AJ5" s="24"/>
       <c r="AK5" s="24"/>
       <c r="AL5" s="27"/>
@@ -1593,6 +1614,9 @@
       <c r="AQ5" s="30"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AI2" r:id="rId1" xr:uid="{191EE6EE-E463-4EC0-844D-65A1E8C974DA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>